--- a/nnunet/results/isbi_excel.xlsx
+++ b/nnunet/results/isbi_excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="349">
   <si>
     <t>metric</t>
   </si>
@@ -139,697 +139,928 @@
     <t>nII_R</t>
   </si>
   <si>
-    <t>1.58 +/- 1.88</t>
-  </si>
-  <si>
-    <t>1.3 +/- 0.69</t>
-  </si>
-  <si>
-    <t>1.66 +/- 1.08</t>
-  </si>
-  <si>
-    <t>1.35 +/- 0.65</t>
-  </si>
-  <si>
-    <t>3.62 +/- 4.29</t>
-  </si>
-  <si>
-    <t>5.02 +/- 7.44</t>
-  </si>
-  <si>
-    <t>1.38 +/- 1.04</t>
-  </si>
-  <si>
-    <t>3.51 +/- 6.68</t>
-  </si>
-  <si>
-    <t>1.1 +/- 1.53</t>
-  </si>
-  <si>
-    <t>inf +/- nan</t>
-  </si>
-  <si>
-    <t>0.7 +/- 0.47</t>
-  </si>
-  <si>
-    <t>0.7 +/- 0.5</t>
-  </si>
-  <si>
-    <t>0.55 +/- 0.24</t>
-  </si>
-  <si>
-    <t>0.6 +/- 0.39</t>
-  </si>
-  <si>
-    <t>5.7 +/- 6.25</t>
-  </si>
-  <si>
-    <t>2.28 +/- 2.13</t>
-  </si>
-  <si>
-    <t>0.72 +/- 0.36</t>
-  </si>
-  <si>
-    <t>0.73 +/- 0.33</t>
-  </si>
-  <si>
-    <t>4.47 +/- 7.33</t>
-  </si>
-  <si>
-    <t>2.86 +/- 4.81</t>
-  </si>
-  <si>
-    <t>0.68 +/- 0.41</t>
-  </si>
-  <si>
-    <t>1.39 +/- 0.69</t>
-  </si>
-  <si>
-    <t>1.18 +/- 0.89</t>
-  </si>
-  <si>
-    <t>0.51 +/- 0.21</t>
-  </si>
-  <si>
-    <t>1.73 +/- 1.04</t>
-  </si>
-  <si>
-    <t>1.24 +/- 0.76</t>
-  </si>
-  <si>
-    <t>1.1 +/- 0.98</t>
-  </si>
-  <si>
-    <t>0.96 +/- 0.84</t>
-  </si>
-  <si>
-    <t>1.21 +/- 1.79</t>
-  </si>
-  <si>
-    <t>0.08 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.29 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.31 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.18 +/- 0.18</t>
-  </si>
-  <si>
-    <t>0.17 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.18 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.1 +/- 0.1</t>
-  </si>
-  <si>
-    <t>0.28 +/- 1.15</t>
-  </si>
-  <si>
-    <t>0.31 +/- 1.39</t>
-  </si>
-  <si>
-    <t>0.1 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.22 +/- 0.11</t>
-  </si>
-  <si>
-    <t>0.23 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.23 +/- 0.1</t>
-  </si>
-  <si>
-    <t>0.21 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.21 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.18 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.19 +/- 0.13</t>
-  </si>
-  <si>
-    <t>0.42 +/- 0.21</t>
-  </si>
-  <si>
-    <t>0.38 +/- 0.1</t>
-  </si>
-  <si>
-    <t>0.09 +/- 0.08</t>
-  </si>
-  <si>
-    <t>0.22 +/- 0.08</t>
-  </si>
-  <si>
-    <t>0.3 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.15 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.17 +/- 0.04</t>
-  </si>
-  <si>
-    <t>0.29 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.24 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.36 +/- 0.66</t>
-  </si>
-  <si>
-    <t>0.11 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.13 +/- 0.07</t>
-  </si>
-  <si>
-    <t>1.34 +/- 1.33</t>
-  </si>
-  <si>
-    <t>1.25 +/- 0.58</t>
-  </si>
-  <si>
-    <t>1.56 +/- 0.91</t>
-  </si>
-  <si>
-    <t>1.21 +/- 0.53</t>
-  </si>
-  <si>
-    <t>3.41 +/- 3.89</t>
-  </si>
-  <si>
-    <t>3.97 +/- 5.23</t>
-  </si>
-  <si>
-    <t>1.2 +/- 0.72</t>
-  </si>
-  <si>
-    <t>2.88 +/- 5.21</t>
-  </si>
-  <si>
-    <t>1.02 +/- 1.5</t>
-  </si>
-  <si>
-    <t>1.47 +/- 1.3</t>
-  </si>
-  <si>
-    <t>0.67 +/- 0.41</t>
-  </si>
-  <si>
-    <t>0.65 +/- 0.37</t>
-  </si>
-  <si>
-    <t>0.54 +/- 0.24</t>
-  </si>
-  <si>
-    <t>0.61 +/- 0.4</t>
-  </si>
-  <si>
-    <t>4.97 +/- 5.26</t>
-  </si>
-  <si>
-    <t>1.92 +/- 1.65</t>
-  </si>
-  <si>
-    <t>0.69 +/- 0.34</t>
-  </si>
-  <si>
-    <t>0.69 +/- 0.3</t>
-  </si>
-  <si>
-    <t>4.23 +/- 6.69</t>
-  </si>
-  <si>
-    <t>2.21 +/- 2.94</t>
-  </si>
-  <si>
-    <t>1.35 +/- 1.92</t>
-  </si>
-  <si>
-    <t>1.36 +/- 0.68</t>
-  </si>
-  <si>
-    <t>1.08 +/- 0.76</t>
-  </si>
-  <si>
-    <t>1.24 +/- 0.62</t>
-  </si>
-  <si>
-    <t>1.69 +/- 0.99</t>
-  </si>
-  <si>
-    <t>1.18 +/- 0.67</t>
-  </si>
-  <si>
-    <t>1.1 +/- 1.0</t>
-  </si>
-  <si>
-    <t>0.89 +/- 0.7</t>
-  </si>
-  <si>
-    <t>1.1 +/- 1.58</t>
-  </si>
-  <si>
-    <t>0.28 +/- 0.11</t>
-  </si>
-  <si>
-    <t>0.17 +/- 0.15</t>
-  </si>
-  <si>
-    <t>0.17 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.09 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.27 +/- 1.15</t>
-  </si>
-  <si>
-    <t>0.3 +/- 1.37</t>
-  </si>
-  <si>
-    <t>0.21 +/- 0.1</t>
-  </si>
-  <si>
-    <t>0.23 +/- 0.11</t>
-  </si>
-  <si>
-    <t>0.23 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.18 +/- 0.08</t>
-  </si>
-  <si>
-    <t>0.19 +/- 0.11</t>
-  </si>
-  <si>
-    <t>0.4 +/- 0.16</t>
-  </si>
-  <si>
-    <t>0.37 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.09 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.28 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.23 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.36 +/- 0.65</t>
-  </si>
-  <si>
-    <t>5.39 +/- 2.58</t>
-  </si>
-  <si>
-    <t>6.5 +/- 3.95</t>
-  </si>
-  <si>
-    <t>21.15 +/- 22.72</t>
-  </si>
-  <si>
-    <t>25.19 +/- 32.82</t>
-  </si>
-  <si>
-    <t>4.44 +/- 2.43</t>
-  </si>
-  <si>
-    <t>12.31 +/- 24.34</t>
-  </si>
-  <si>
-    <t>2.91 +/- 2.28</t>
-  </si>
-  <si>
-    <t>2.6 +/- 1.21</t>
-  </si>
-  <si>
-    <t>3.01 +/- 1.81</t>
-  </si>
-  <si>
-    <t>2.25 +/- 0.84</t>
-  </si>
-  <si>
-    <t>2.22 +/- 0.91</t>
-  </si>
-  <si>
-    <t>27.28 +/- 26.97</t>
-  </si>
-  <si>
-    <t>11.74 +/- 15.56</t>
-  </si>
-  <si>
-    <t>2.93 +/- 1.56</t>
-  </si>
-  <si>
-    <t>3.34 +/- 1.51</t>
-  </si>
-  <si>
-    <t>27.46 +/- 37.98</t>
-  </si>
-  <si>
-    <t>10.61 +/- 12.38</t>
-  </si>
-  <si>
-    <t>2.36 +/- 1.18</t>
-  </si>
-  <si>
-    <t>6.6 +/- 3.55</t>
-  </si>
-  <si>
-    <t>3.29 +/- 2.44</t>
-  </si>
-  <si>
-    <t>6.75 +/- 3.9</t>
-  </si>
-  <si>
-    <t>7.37 +/- 7.05</t>
-  </si>
-  <si>
-    <t>11.39 +/- 23.9</t>
-  </si>
-  <si>
-    <t>4.79 +/- 4.27</t>
-  </si>
-  <si>
-    <t>6.79 +/- 12.14</t>
-  </si>
-  <si>
-    <t>1.61 +/- 0.4</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.25</t>
-  </si>
-  <si>
-    <t>0.74 +/- 0.25</t>
-  </si>
-  <si>
-    <t>1.05 +/- 0.22</t>
-  </si>
-  <si>
-    <t>1.09 +/- 0.28</t>
-  </si>
-  <si>
-    <t>1.83 +/- 0.81</t>
-  </si>
-  <si>
-    <t>1.72 +/- 0.36</t>
-  </si>
-  <si>
-    <t>1.46 +/- 0.3</t>
-  </si>
-  <si>
-    <t>0.83 +/- 0.31</t>
-  </si>
-  <si>
-    <t>1.54 +/- 0.29</t>
-  </si>
-  <si>
-    <t>1.07 +/- 0.17</t>
-  </si>
-  <si>
-    <t>4.02 +/- 18.71</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.3</t>
-  </si>
-  <si>
-    <t>0.8 +/- 0.13</t>
-  </si>
-  <si>
-    <t>0.75 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.78 +/- 0.15</t>
-  </si>
-  <si>
-    <t>0.82 +/- 0.19</t>
-  </si>
-  <si>
-    <t>0.81 +/- 0.21</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.21</t>
-  </si>
-  <si>
-    <t>0.83 +/- 0.27</t>
-  </si>
-  <si>
-    <t>0.84 +/- 0.27</t>
-  </si>
-  <si>
-    <t>0.59 +/- 0.38</t>
-  </si>
-  <si>
-    <t>0.92 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.93 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.96 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.16</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.17</t>
-  </si>
-  <si>
-    <t>0.92 +/- 0.08</t>
-  </si>
-  <si>
-    <t>0.9 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.8 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.75 +/- 0.2</t>
-  </si>
-  <si>
-    <t>0.94 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.8 +/- 0.28</t>
-  </si>
-  <si>
-    <t>0.81 +/- 0.1</t>
-  </si>
-  <si>
-    <t>0.84 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.96 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.74 +/- 0.14</t>
-  </si>
-  <si>
-    <t>0.87 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.94 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.87 +/- 0.14</t>
-  </si>
-  <si>
-    <t>0.89 +/- 0.13</t>
-  </si>
-  <si>
-    <t>1.0 +/- 0.01</t>
-  </si>
-  <si>
-    <t>0.99 +/- 0.01</t>
-  </si>
-  <si>
-    <t>0.99 +/- 0.02</t>
-  </si>
-  <si>
-    <t>1.0 +/- 0.0</t>
-  </si>
-  <si>
-    <t>1.0 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.97 +/- 0.16</t>
-  </si>
-  <si>
-    <t>0.97 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.98 +/- 0.01</t>
-  </si>
-  <si>
-    <t>0.47 +/- 0.25</t>
-  </si>
-  <si>
-    <t>0.84 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.66 +/- 0.12</t>
-  </si>
-  <si>
-    <t>0.52 +/- 0.25</t>
-  </si>
-  <si>
-    <t>0.62 +/- 0.19</t>
-  </si>
-  <si>
-    <t>0.62 +/- 0.21</t>
-  </si>
-  <si>
-    <t>0.39 +/- 0.22</t>
-  </si>
-  <si>
-    <t>0.56 +/- 0.24</t>
-  </si>
-  <si>
-    <t>0.51 +/- 0.28</t>
-  </si>
-  <si>
-    <t>0.45 +/- 0.33</t>
-  </si>
-  <si>
-    <t>0.72 +/- 0.17</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.08</t>
-  </si>
-  <si>
-    <t>0.89 +/- 0.04</t>
-  </si>
-  <si>
-    <t>0.88 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.72 +/- 0.14</t>
-  </si>
-  <si>
-    <t>0.67 +/- 0.21</t>
-  </si>
-  <si>
-    <t>0.62 +/- 0.13</t>
-  </si>
-  <si>
-    <t>0.64 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.82 +/- 0.09</t>
-  </si>
-  <si>
-    <t>0.76 +/- 0.22</t>
-  </si>
-  <si>
-    <t>0.66 +/- 0.14</t>
-  </si>
-  <si>
-    <t>0.66 +/- 0.25</t>
-  </si>
-  <si>
-    <t>0.73 +/- 0.11</t>
-  </si>
-  <si>
-    <t>0.61 +/- 0.16</t>
-  </si>
-  <si>
-    <t>0.67 +/- 0.23</t>
-  </si>
-  <si>
-    <t>0.9 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.62 +/- 0.06</t>
-  </si>
-  <si>
-    <t>0.81 +/- 0.05</t>
-  </si>
-  <si>
-    <t>0.57 +/- 0.17</t>
-  </si>
-  <si>
-    <t>0.6 +/- 0.15</t>
-  </si>
-  <si>
-    <t>0.94 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.88 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.91 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.88 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.9 +/- 0.04</t>
-  </si>
-  <si>
-    <t>0.87 +/- 0.15</t>
-  </si>
-  <si>
-    <t>0.89 +/- 0.15</t>
-  </si>
-  <si>
-    <t>0.94 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.88 +/- 0.04</t>
-  </si>
-  <si>
-    <t>0.91 +/- 0.15</t>
-  </si>
-  <si>
-    <t>0.93 +/- 0.01</t>
-  </si>
-  <si>
-    <t>0.84 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.84 +/- 0.04</t>
-  </si>
-  <si>
-    <t>0.91 +/- 0.07</t>
-  </si>
-  <si>
-    <t>0.92 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.93 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.91 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.9 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.93 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.95 +/- 0.02</t>
-  </si>
-  <si>
-    <t>0.96 +/- 0.01</t>
-  </si>
-  <si>
-    <t>0.85 +/- 0.03</t>
-  </si>
-  <si>
-    <t>0.87 +/- 0.03</t>
+    <t>1.577 +/- 1.884; N=12</t>
+  </si>
+  <si>
+    <t>1.304 +/- 0.694; N=14</t>
+  </si>
+  <si>
+    <t>1.663 +/- 1.083; N=14</t>
+  </si>
+  <si>
+    <t>1.346 +/- 0.647; N=12</t>
+  </si>
+  <si>
+    <t>3.623 +/- 4.293; N=14</t>
+  </si>
+  <si>
+    <t>5.021 +/- 7.441; N=14</t>
+  </si>
+  <si>
+    <t>1.376 +/- 1.041; N=14</t>
+  </si>
+  <si>
+    <t>3.505 +/- 6.677; N=14</t>
+  </si>
+  <si>
+    <t>1.097 +/- 1.53; N=14</t>
+  </si>
+  <si>
+    <t>1.695 +/- 1.479; N=8</t>
+  </si>
+  <si>
+    <t>0.7 +/- 0.473; N=14</t>
+  </si>
+  <si>
+    <t>0.701 +/- 0.501; N=14</t>
+  </si>
+  <si>
+    <t>0.547 +/- 0.242; N=14</t>
+  </si>
+  <si>
+    <t>0.604 +/- 0.386; N=14</t>
+  </si>
+  <si>
+    <t>5.695 +/- 6.246; N=14</t>
+  </si>
+  <si>
+    <t>2.279 +/- 2.131; N=14</t>
+  </si>
+  <si>
+    <t>0.715 +/- 0.358; N=14</t>
+  </si>
+  <si>
+    <t>0.732 +/- 0.334; N=14</t>
+  </si>
+  <si>
+    <t>4.471 +/- 7.332; N=14</t>
+  </si>
+  <si>
+    <t>2.861 +/- 4.814; N=14</t>
+  </si>
+  <si>
+    <t>0.683 +/- 0.413; N=14</t>
+  </si>
+  <si>
+    <t>1.681 +/- 2.862; N=11</t>
+  </si>
+  <si>
+    <t>1.389 +/- 0.695; N=14</t>
+  </si>
+  <si>
+    <t>1.185 +/- 0.89; N=12</t>
+  </si>
+  <si>
+    <t>1.301 +/- 0.78; N=12</t>
+  </si>
+  <si>
+    <t>0.508 +/- 0.208; N=14</t>
+  </si>
+  <si>
+    <t>1.73 +/- 1.039; N=14</t>
+  </si>
+  <si>
+    <t>1.237 +/- 0.759; N=14</t>
+  </si>
+  <si>
+    <t>1.101 +/- 0.977; N=14</t>
+  </si>
+  <si>
+    <t>0.956 +/- 0.837; N=14</t>
+  </si>
+  <si>
+    <t>1.207 +/- 1.79; N=14</t>
+  </si>
+  <si>
+    <t>0.082 +/- 0.055; N=38</t>
+  </si>
+  <si>
+    <t>0.291 +/- 0.12; N=41</t>
+  </si>
+  <si>
+    <t>0.306 +/- 0.075; N=42</t>
+  </si>
+  <si>
+    <t>0.179 +/- 0.176; N=37</t>
+  </si>
+  <si>
+    <t>0.168 +/- 0.053; N=42</t>
+  </si>
+  <si>
+    <t>0.175 +/- 0.07; N=42</t>
+  </si>
+  <si>
+    <t>0.097 +/- 0.1; N=40</t>
+  </si>
+  <si>
+    <t>0.28 +/- 1.154; N=41</t>
+  </si>
+  <si>
+    <t>0.311 +/- 1.385; N=41</t>
+  </si>
+  <si>
+    <t>0.102 +/- 0.067; N=32</t>
+  </si>
+  <si>
+    <t>0.216 +/- 0.115; N=40</t>
+  </si>
+  <si>
+    <t>0.232 +/- 0.116; N=39</t>
+  </si>
+  <si>
+    <t>0.233 +/- 0.093; N=40</t>
+  </si>
+  <si>
+    <t>0.228 +/- 0.102; N=41</t>
+  </si>
+  <si>
+    <t>0.21 +/- 0.061; N=42</t>
+  </si>
+  <si>
+    <t>0.215 +/- 0.066; N=42</t>
+  </si>
+  <si>
+    <t>0.179 +/- 0.086; N=39</t>
+  </si>
+  <si>
+    <t>0.191 +/- 0.127; N=39</t>
+  </si>
+  <si>
+    <t>0.415 +/- 0.207; N=42</t>
+  </si>
+  <si>
+    <t>0.379 +/- 0.098; N=42</t>
+  </si>
+  <si>
+    <t>0.094 +/- 0.081; N=40</t>
+  </si>
+  <si>
+    <t>0.219 +/- 0.075; N=37</t>
+  </si>
+  <si>
+    <t>0.298 +/- 0.072; N=42</t>
+  </si>
+  <si>
+    <t>0.15 +/- 0.054; N=38</t>
+  </si>
+  <si>
+    <t>0.173 +/- 0.044; N=41</t>
+  </si>
+  <si>
+    <t>0.179 +/- 0.074; N=42</t>
+  </si>
+  <si>
+    <t>0.29 +/- 0.07; N=42</t>
+  </si>
+  <si>
+    <t>0.235 +/- 0.052; N=42</t>
+  </si>
+  <si>
+    <t>0.359 +/- 0.664; N=42</t>
+  </si>
+  <si>
+    <t>0.115 +/- 0.06; N=40</t>
+  </si>
+  <si>
+    <t>0.132 +/- 0.072; N=40</t>
+  </si>
+  <si>
+    <t>1.344 +/- 1.326; N=12</t>
+  </si>
+  <si>
+    <t>1.255 +/- 0.585; N=14</t>
+  </si>
+  <si>
+    <t>1.558 +/- 0.906; N=14</t>
+  </si>
+  <si>
+    <t>1.214 +/- 0.531; N=12</t>
+  </si>
+  <si>
+    <t>3.409 +/- 3.885; N=14</t>
+  </si>
+  <si>
+    <t>3.968 +/- 5.232; N=14</t>
+  </si>
+  <si>
+    <t>1.204 +/- 0.723; N=14</t>
+  </si>
+  <si>
+    <t>2.88 +/- 5.205; N=14</t>
+  </si>
+  <si>
+    <t>1.024 +/- 1.496; N=14</t>
+  </si>
+  <si>
+    <t>1.467 +/- 1.301; N=8</t>
+  </si>
+  <si>
+    <t>0.666 +/- 0.409; N=14</t>
+  </si>
+  <si>
+    <t>0.647 +/- 0.369; N=14</t>
+  </si>
+  <si>
+    <t>0.543 +/- 0.24; N=14</t>
+  </si>
+  <si>
+    <t>0.605 +/- 0.398; N=14</t>
+  </si>
+  <si>
+    <t>4.966 +/- 5.261; N=14</t>
+  </si>
+  <si>
+    <t>1.923 +/- 1.648; N=14</t>
+  </si>
+  <si>
+    <t>0.688 +/- 0.34; N=14</t>
+  </si>
+  <si>
+    <t>0.688 +/- 0.301; N=14</t>
+  </si>
+  <si>
+    <t>4.23 +/- 6.693; N=14</t>
+  </si>
+  <si>
+    <t>2.212 +/- 2.943; N=14</t>
+  </si>
+  <si>
+    <t>0.671 +/- 0.407; N=14</t>
+  </si>
+  <si>
+    <t>1.35 +/- 1.924; N=11</t>
+  </si>
+  <si>
+    <t>1.362 +/- 0.683; N=14</t>
+  </si>
+  <si>
+    <t>1.084 +/- 0.757; N=12</t>
+  </si>
+  <si>
+    <t>1.236 +/- 0.621; N=12</t>
+  </si>
+  <si>
+    <t>0.508 +/- 0.212; N=14</t>
+  </si>
+  <si>
+    <t>1.691 +/- 0.986; N=14</t>
+  </si>
+  <si>
+    <t>1.182 +/- 0.674; N=14</t>
+  </si>
+  <si>
+    <t>1.104 +/- 1.001; N=14</t>
+  </si>
+  <si>
+    <t>0.889 +/- 0.704; N=14</t>
+  </si>
+  <si>
+    <t>1.099 +/- 1.584; N=14</t>
+  </si>
+  <si>
+    <t>0.081 +/- 0.051; N=38</t>
+  </si>
+  <si>
+    <t>0.285 +/- 0.114; N=41</t>
+  </si>
+  <si>
+    <t>0.297 +/- 0.071; N=42</t>
+  </si>
+  <si>
+    <t>0.172 +/- 0.149; N=37</t>
+  </si>
+  <si>
+    <t>0.166 +/- 0.052; N=42</t>
+  </si>
+  <si>
+    <t>0.173 +/- 0.069; N=42</t>
+  </si>
+  <si>
+    <t>0.094 +/- 0.09; N=40</t>
+  </si>
+  <si>
+    <t>0.271 +/- 1.148; N=41</t>
+  </si>
+  <si>
+    <t>0.302 +/- 1.371; N=41</t>
+  </si>
+  <si>
+    <t>0.101 +/- 0.066; N=32</t>
+  </si>
+  <si>
+    <t>0.211 +/- 0.104; N=40</t>
+  </si>
+  <si>
+    <t>0.227 +/- 0.105; N=39</t>
+  </si>
+  <si>
+    <t>0.231 +/- 0.093; N=40</t>
+  </si>
+  <si>
+    <t>0.226 +/- 0.102; N=41</t>
+  </si>
+  <si>
+    <t>0.207 +/- 0.06; N=42</t>
+  </si>
+  <si>
+    <t>0.211 +/- 0.065; N=42</t>
+  </si>
+  <si>
+    <t>0.176 +/- 0.081; N=39</t>
+  </si>
+  <si>
+    <t>0.186 +/- 0.114; N=39</t>
+  </si>
+  <si>
+    <t>0.397 +/- 0.158; N=42</t>
+  </si>
+  <si>
+    <t>0.37 +/- 0.092; N=42</t>
+  </si>
+  <si>
+    <t>0.091 +/- 0.074; N=40</t>
+  </si>
+  <si>
+    <t>0.215 +/- 0.073; N=37</t>
+  </si>
+  <si>
+    <t>0.292 +/- 0.07; N=42</t>
+  </si>
+  <si>
+    <t>0.147 +/- 0.052; N=38</t>
+  </si>
+  <si>
+    <t>0.17 +/- 0.043; N=41</t>
+  </si>
+  <si>
+    <t>0.178 +/- 0.073; N=42</t>
+  </si>
+  <si>
+    <t>0.284 +/- 0.068; N=42</t>
+  </si>
+  <si>
+    <t>0.23 +/- 0.05; N=42</t>
+  </si>
+  <si>
+    <t>0.357 +/- 0.649; N=42</t>
+  </si>
+  <si>
+    <t>0.113 +/- 0.057; N=40</t>
+  </si>
+  <si>
+    <t>0.129 +/- 0.067; N=40</t>
+  </si>
+  <si>
+    <t>4.558 +/- 3.251; N=12</t>
+  </si>
+  <si>
+    <t>5.388 +/- 2.58; N=14</t>
+  </si>
+  <si>
+    <t>6.497 +/- 3.954; N=14</t>
+  </si>
+  <si>
+    <t>4.918 +/- 2.482; N=12</t>
+  </si>
+  <si>
+    <t>21.147 +/- 22.72; N=14</t>
+  </si>
+  <si>
+    <t>25.192 +/- 32.82; N=14</t>
+  </si>
+  <si>
+    <t>4.441 +/- 2.433; N=14</t>
+  </si>
+  <si>
+    <t>12.306 +/- 24.345; N=14</t>
+  </si>
+  <si>
+    <t>2.911 +/- 2.284; N=14</t>
+  </si>
+  <si>
+    <t>5.16 +/- 3.375; N=8</t>
+  </si>
+  <si>
+    <t>2.599 +/- 1.207; N=14</t>
+  </si>
+  <si>
+    <t>3.013 +/- 1.812; N=14</t>
+  </si>
+  <si>
+    <t>2.251 +/- 0.836; N=14</t>
+  </si>
+  <si>
+    <t>2.221 +/- 0.907; N=14</t>
+  </si>
+  <si>
+    <t>27.276 +/- 26.971; N=14</t>
+  </si>
+  <si>
+    <t>11.743 +/- 15.557; N=14</t>
+  </si>
+  <si>
+    <t>2.934 +/- 1.563; N=14</t>
+  </si>
+  <si>
+    <t>3.34 +/- 1.509; N=14</t>
+  </si>
+  <si>
+    <t>27.457 +/- 37.983; N=14</t>
+  </si>
+  <si>
+    <t>10.605 +/- 12.378; N=14</t>
+  </si>
+  <si>
+    <t>2.36 +/- 1.177; N=14</t>
+  </si>
+  <si>
+    <t>7.67 +/- 10.195; N=11</t>
+  </si>
+  <si>
+    <t>6.599 +/- 3.55; N=14</t>
+  </si>
+  <si>
+    <t>5.282 +/- 3.453; N=12</t>
+  </si>
+  <si>
+    <t>5.543 +/- 2.95; N=12</t>
+  </si>
+  <si>
+    <t>3.288 +/- 2.436; N=14</t>
+  </si>
+  <si>
+    <t>6.753 +/- 3.902; N=14</t>
+  </si>
+  <si>
+    <t>7.368 +/- 7.05; N=14</t>
+  </si>
+  <si>
+    <t>11.389 +/- 23.899; N=14</t>
+  </si>
+  <si>
+    <t>4.79 +/- 4.265; N=14</t>
+  </si>
+  <si>
+    <t>6.795 +/- 12.137; N=14</t>
+  </si>
+  <si>
+    <t>0.601 +/- 0.487; N=38</t>
+  </si>
+  <si>
+    <t>1.331 +/- 0.437; N=41</t>
+  </si>
+  <si>
+    <t>1.613 +/- 0.403; N=42</t>
+  </si>
+  <si>
+    <t>1.09 +/- 1.562; N=37</t>
+  </si>
+  <si>
+    <t>0.757 +/- 0.255; N=42</t>
+  </si>
+  <si>
+    <t>0.739 +/- 0.249; N=42</t>
+  </si>
+  <si>
+    <t>0.774 +/- 0.689; N=40</t>
+  </si>
+  <si>
+    <t>0.935 +/- 1.71; N=41</t>
+  </si>
+  <si>
+    <t>1.118 +/- 2.028; N=41</t>
+  </si>
+  <si>
+    <t>0.655 +/- 0.432; N=32</t>
+  </si>
+  <si>
+    <t>1.091 +/- 0.587; N=40</t>
+  </si>
+  <si>
+    <t>1.2 +/- 0.66; N=39</t>
+  </si>
+  <si>
+    <t>1.122 +/- 0.344; N=40</t>
+  </si>
+  <si>
+    <t>1.157 +/- 0.414; N=41</t>
+  </si>
+  <si>
+    <t>1.054 +/- 0.224; N=42</t>
+  </si>
+  <si>
+    <t>1.088 +/- 0.281; N=42</t>
+  </si>
+  <si>
+    <t>0.9 +/- 0.419; N=39</t>
+  </si>
+  <si>
+    <t>1.106 +/- 0.946; N=39</t>
+  </si>
+  <si>
+    <t>1.827 +/- 0.806; N=42</t>
+  </si>
+  <si>
+    <t>1.719 +/- 0.364; N=42</t>
+  </si>
+  <si>
+    <t>0.848 +/- 0.847; N=40</t>
+  </si>
+  <si>
+    <t>1.05 +/- 0.299; N=37</t>
+  </si>
+  <si>
+    <t>1.462 +/- 0.299; N=42</t>
+  </si>
+  <si>
+    <t>0.791 +/- 0.259; N=38</t>
+  </si>
+  <si>
+    <t>1.026 +/- 0.201; N=41</t>
+  </si>
+  <si>
+    <t>0.832 +/- 0.309; N=42</t>
+  </si>
+  <si>
+    <t>1.53 +/- 0.3; N=42</t>
+  </si>
+  <si>
+    <t>1.069 +/- 0.172; N=42</t>
+  </si>
+  <si>
+    <t>4.016 +/- 18.714; N=42</t>
+  </si>
+  <si>
+    <t>0.791 +/- 0.65; N=40</t>
+  </si>
+  <si>
+    <t>0.921 +/- 0.717; N=40</t>
+  </si>
+  <si>
+    <t>0.761 +/- 0.295; N=12</t>
+  </si>
+  <si>
+    <t>0.8 +/- 0.126; N=14</t>
+  </si>
+  <si>
+    <t>0.753 +/- 0.118; N=14</t>
+  </si>
+  <si>
+    <t>0.781 +/- 0.15; N=12</t>
+  </si>
+  <si>
+    <t>0.817 +/- 0.192; N=14</t>
+  </si>
+  <si>
+    <t>0.808 +/- 0.212; N=14</t>
+  </si>
+  <si>
+    <t>0.761 +/- 0.206; N=14</t>
+  </si>
+  <si>
+    <t>0.829 +/- 0.268; N=14</t>
+  </si>
+  <si>
+    <t>0.838 +/- 0.268; N=14</t>
+  </si>
+  <si>
+    <t>0.734 +/- 0.252; N=8</t>
+  </si>
+  <si>
+    <t>0.919 +/- 0.119; N=14</t>
+  </si>
+  <si>
+    <t>0.927 +/- 0.095; N=14</t>
+  </si>
+  <si>
+    <t>0.956 +/- 0.049; N=14</t>
+  </si>
+  <si>
+    <t>0.957 +/- 0.051; N=14</t>
+  </si>
+  <si>
+    <t>0.764 +/- 0.163; N=14</t>
+  </si>
+  <si>
+    <t>0.76 +/- 0.168; N=14</t>
+  </si>
+  <si>
+    <t>0.919 +/- 0.082; N=14</t>
+  </si>
+  <si>
+    <t>0.902 +/- 0.071; N=14</t>
+  </si>
+  <si>
+    <t>0.797 +/- 0.117; N=14</t>
+  </si>
+  <si>
+    <t>0.753 +/- 0.205; N=14</t>
+  </si>
+  <si>
+    <t>0.939 +/- 0.088; N=14</t>
+  </si>
+  <si>
+    <t>0.869 +/- 0.136; N=11</t>
+  </si>
+  <si>
+    <t>0.806 +/- 0.103; N=14</t>
+  </si>
+  <si>
+    <t>0.843 +/- 0.122; N=12</t>
+  </si>
+  <si>
+    <t>0.824 +/- 0.109; N=12</t>
+  </si>
+  <si>
+    <t>0.96 +/- 0.025; N=14</t>
+  </si>
+  <si>
+    <t>0.738 +/- 0.139; N=14</t>
+  </si>
+  <si>
+    <t>0.87 +/- 0.059; N=14</t>
+  </si>
+  <si>
+    <t>0.942 +/- 0.06; N=14</t>
+  </si>
+  <si>
+    <t>0.874 +/- 0.144; N=14</t>
+  </si>
+  <si>
+    <t>0.894 +/- 0.129; N=14</t>
+  </si>
+  <si>
+    <t>0.998 +/- 0.011; N=38</t>
+  </si>
+  <si>
+    <t>0.993 +/- 0.01; N=41</t>
+  </si>
+  <si>
+    <t>0.987 +/- 0.011; N=42</t>
+  </si>
+  <si>
+    <t>0.994 +/- 0.021; N=37</t>
+  </si>
+  <si>
+    <t>0.999 +/- 0.002; N=42</t>
+  </si>
+  <si>
+    <t>0.996 +/- 0.019; N=40</t>
+  </si>
+  <si>
+    <t>0.968 +/- 0.162; N=41</t>
+  </si>
+  <si>
+    <t>0.969 +/- 0.158; N=41</t>
+  </si>
+  <si>
+    <t>1.0 +/- 0.001; N=32</t>
+  </si>
+  <si>
+    <t>0.994 +/- 0.014; N=40</t>
+  </si>
+  <si>
+    <t>0.993 +/- 0.018; N=39</t>
+  </si>
+  <si>
+    <t>0.998 +/- 0.005; N=40</t>
+  </si>
+  <si>
+    <t>0.996 +/- 0.008; N=41</t>
+  </si>
+  <si>
+    <t>0.998 +/- 0.003; N=42</t>
+  </si>
+  <si>
+    <t>0.997 +/- 0.004; N=42</t>
+  </si>
+  <si>
+    <t>0.997 +/- 0.011; N=39</t>
+  </si>
+  <si>
+    <t>0.993 +/- 0.023; N=39</t>
+  </si>
+  <si>
+    <t>0.975 +/- 0.045; N=42</t>
+  </si>
+  <si>
+    <t>0.982 +/- 0.014; N=42</t>
+  </si>
+  <si>
+    <t>0.997 +/- 0.012; N=40</t>
+  </si>
+  <si>
+    <t>0.997 +/- 0.004; N=37</t>
+  </si>
+  <si>
+    <t>0.991 +/- 0.006; N=42</t>
+  </si>
+  <si>
+    <t>0.998 +/- 0.004; N=38</t>
+  </si>
+  <si>
+    <t>0.997 +/- 0.003; N=41</t>
+  </si>
+  <si>
+    <t>0.998 +/- 0.002; N=42</t>
+  </si>
+  <si>
+    <t>0.996 +/- 0.003; N=42</t>
+  </si>
+  <si>
+    <t>0.995 +/- 0.011; N=42</t>
+  </si>
+  <si>
+    <t>0.997 +/- 0.007; N=40</t>
+  </si>
+  <si>
+    <t>0.995 +/- 0.011; N=40</t>
+  </si>
+  <si>
+    <t>0.474 +/- 0.254; N=12</t>
+  </si>
+  <si>
+    <t>0.836 +/- 0.064; N=14</t>
+  </si>
+  <si>
+    <t>0.661 +/- 0.12; N=14</t>
+  </si>
+  <si>
+    <t>0.517 +/- 0.245; N=12</t>
+  </si>
+  <si>
+    <t>0.624 +/- 0.191; N=14</t>
+  </si>
+  <si>
+    <t>0.618 +/- 0.21; N=14</t>
+  </si>
+  <si>
+    <t>0.387 +/- 0.215; N=14</t>
+  </si>
+  <si>
+    <t>0.558 +/- 0.244; N=14</t>
+  </si>
+  <si>
+    <t>0.514 +/- 0.277; N=14</t>
+  </si>
+  <si>
+    <t>0.559 +/- 0.257; N=8</t>
+  </si>
+  <si>
+    <t>0.723 +/- 0.169; N=14</t>
+  </si>
+  <si>
+    <t>0.763 +/- 0.085; N=14</t>
+  </si>
+  <si>
+    <t>0.887 +/- 0.045; N=14</t>
+  </si>
+  <si>
+    <t>0.884 +/- 0.058; N=14</t>
+  </si>
+  <si>
+    <t>0.716 +/- 0.138; N=14</t>
+  </si>
+  <si>
+    <t>0.67 +/- 0.211; N=14</t>
+  </si>
+  <si>
+    <t>0.621 +/- 0.128; N=14</t>
+  </si>
+  <si>
+    <t>0.636 +/- 0.092; N=14</t>
+  </si>
+  <si>
+    <t>0.817 +/- 0.088; N=14</t>
+  </si>
+  <si>
+    <t>0.765 +/- 0.215; N=14</t>
+  </si>
+  <si>
+    <t>0.658 +/- 0.141; N=14</t>
+  </si>
+  <si>
+    <t>0.721 +/- 0.14; N=11</t>
+  </si>
+  <si>
+    <t>0.728 +/- 0.115; N=14</t>
+  </si>
+  <si>
+    <t>0.615 +/- 0.155; N=12</t>
+  </si>
+  <si>
+    <t>0.728 +/- 0.108; N=12</t>
+  </si>
+  <si>
+    <t>0.898 +/- 0.029; N=14</t>
+  </si>
+  <si>
+    <t>0.845 +/- 0.124; N=14</t>
+  </si>
+  <si>
+    <t>0.617 +/- 0.058; N=14</t>
+  </si>
+  <si>
+    <t>0.812 +/- 0.048; N=14</t>
+  </si>
+  <si>
+    <t>0.572 +/- 0.172; N=14</t>
+  </si>
+  <si>
+    <t>0.604 +/- 0.152; N=14</t>
+  </si>
+  <si>
+    <t>0.897 +/- 0.028; N=38</t>
+  </si>
+  <si>
+    <t>0.945 +/- 0.018; N=41</t>
+  </si>
+  <si>
+    <t>0.884 +/- 0.025; N=42</t>
+  </si>
+  <si>
+    <t>0.911 +/- 0.032; N=37</t>
+  </si>
+  <si>
+    <t>0.884 +/- 0.023; N=42</t>
+  </si>
+  <si>
+    <t>0.883 +/- 0.029; N=42</t>
+  </si>
+  <si>
+    <t>0.897 +/- 0.042; N=40</t>
+  </si>
+  <si>
+    <t>0.874 +/- 0.152; N=41</t>
+  </si>
+  <si>
+    <t>0.887 +/- 0.151; N=41</t>
+  </si>
+  <si>
+    <t>0.938 +/- 0.025; N=32</t>
+  </si>
+  <si>
+    <t>0.881 +/- 0.038; N=40</t>
+  </si>
+  <si>
+    <t>0.884 +/- 0.031; N=39</t>
+  </si>
+  <si>
+    <t>0.937 +/- 0.018; N=40</t>
+  </si>
+  <si>
+    <t>0.937 +/- 0.024; N=41</t>
+  </si>
+  <si>
+    <t>0.934 +/- 0.011; N=42</t>
+  </si>
+  <si>
+    <t>0.933 +/- 0.014; N=42</t>
+  </si>
+  <si>
+    <t>0.843 +/- 0.033; N=39</t>
+  </si>
+  <si>
+    <t>0.844 +/- 0.042; N=39</t>
+  </si>
+  <si>
+    <t>0.909 +/- 0.07; N=42</t>
+  </si>
+  <si>
+    <t>0.924 +/- 0.019; N=42</t>
+  </si>
+  <si>
+    <t>0.926 +/- 0.028; N=40</t>
+  </si>
+  <si>
+    <t>0.908 +/- 0.018; N=37</t>
+  </si>
+  <si>
+    <t>0.907 +/- 0.028; N=42</t>
+  </si>
+  <si>
+    <t>0.897 +/- 0.023; N=38</t>
+  </si>
+  <si>
+    <t>0.931 +/- 0.02; N=41</t>
+  </si>
+  <si>
+    <t>0.948 +/- 0.018; N=42</t>
+  </si>
+  <si>
+    <t>0.964 +/- 0.008; N=42</t>
+  </si>
+  <si>
+    <t>0.848 +/- 0.028; N=42</t>
+  </si>
+  <si>
+    <t>0.913 +/- 0.019; N=42</t>
+  </si>
+  <si>
+    <t>0.874 +/- 0.031; N=40</t>
+  </si>
+  <si>
+    <t>0.87 +/- 0.028; N=40</t>
   </si>
 </sst>
 </file>
@@ -1266,31 +1497,31 @@
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="H4" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="I4" t="s">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="J4" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="K4" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1301,31 +1532,31 @@
         <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>197</v>
       </c>
       <c r="H5" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="I5" t="s">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="K5" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1336,31 +1567,31 @@
         <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="J6" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="K6" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1371,31 +1602,31 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="J7" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="K7" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1406,31 +1637,31 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="H8" t="s">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="J8" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="K8" t="s">
-        <v>250</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1441,31 +1672,31 @@
         <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="I9" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="J9" t="s">
-        <v>224</v>
+        <v>292</v>
       </c>
       <c r="K9" t="s">
-        <v>252</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1476,31 +1707,31 @@
         <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="H10" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="J10" t="s">
-        <v>225</v>
+        <v>293</v>
       </c>
       <c r="K10" t="s">
-        <v>253</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1511,31 +1742,31 @@
         <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>203</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="J11" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="K11" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1546,31 +1777,31 @@
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="H12" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="J12" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
       <c r="K12" t="s">
-        <v>255</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1581,31 +1812,31 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
       <c r="I13" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
       <c r="J13" t="s">
-        <v>228</v>
+        <v>296</v>
       </c>
       <c r="K13" t="s">
-        <v>256</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1616,31 +1847,31 @@
         <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="H14" t="s">
-        <v>192</v>
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>212</v>
+        <v>267</v>
       </c>
       <c r="J14" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="K14" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1651,31 +1882,31 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>207</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="I15" t="s">
-        <v>213</v>
+        <v>268</v>
       </c>
       <c r="J15" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="K15" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1686,31 +1917,31 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="H16" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="I16" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="J16" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="K16" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1721,31 +1952,31 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="H17" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="I17" t="s">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="J17" t="s">
-        <v>232</v>
+        <v>300</v>
       </c>
       <c r="K17" t="s">
-        <v>249</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1756,31 +1987,31 @@
         <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="G18" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="H18" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="I18" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="J18" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="K18" t="s">
-        <v>259</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1791,31 +2022,31 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="H19" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="I19" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="J19" t="s">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="K19" t="s">
-        <v>259</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1826,31 +2057,31 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="H20" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="I20" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="J20" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="K20" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1861,31 +2092,31 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="H21" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="I21" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="J21" t="s">
-        <v>236</v>
+        <v>304</v>
       </c>
       <c r="K21" t="s">
-        <v>261</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1896,31 +2127,31 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>275</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>305</v>
       </c>
       <c r="K22" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1931,31 +2162,31 @@
         <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="I23" t="s">
-        <v>218</v>
+        <v>276</v>
       </c>
       <c r="J23" t="s">
-        <v>238</v>
+        <v>306</v>
       </c>
       <c r="K23" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1966,31 +2197,31 @@
         <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F24" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>216</v>
       </c>
       <c r="H24" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="J24" t="s">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="K24" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1998,34 +2229,34 @@
         <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>217</v>
       </c>
       <c r="H25" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -2033,34 +2264,34 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="H26" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="I26" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="K26" t="s">
-        <v>251</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -2068,34 +2299,34 @@
         <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>188</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="J27" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
       <c r="K27" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -2103,34 +2334,34 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="K28" t="s">
-        <v>267</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -2138,34 +2369,34 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="H29" t="s">
-        <v>205</v>
+        <v>252</v>
       </c>
       <c r="I29" t="s">
-        <v>214</v>
+        <v>282</v>
       </c>
       <c r="J29" t="s">
-        <v>244</v>
+        <v>312</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -2173,34 +2404,34 @@
         <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="G30" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="H30" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="I30" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -2208,34 +2439,34 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="G31" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
-        <v>207</v>
+        <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -2243,34 +2474,34 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E32" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F32" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="G32" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="I32" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>246</v>
+        <v>315</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -2278,34 +2509,34 @@
         <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="F33" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="J33" t="s">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2313,34 +2544,34 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>195</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>211</v>
+        <v>286</v>
       </c>
       <c r="J34" t="s">
-        <v>248</v>
+        <v>317</v>
       </c>
       <c r="K34" t="s">
-        <v>271</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
